--- a/hardware/hardwareUebersicht.xlsx
+++ b/hardware/hardwareUebersicht.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="150">
   <si>
     <t xml:space="preserve">Musikbox </t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">buttons</t>
   </si>
   <si>
+    <t xml:space="preserve">interrupt pin</t>
+  </si>
+  <si>
     <t xml:space="preserve">D0</t>
   </si>
   <si>
@@ -83,12 +86,18 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">yes (only LOW)</t>
+  </si>
+  <si>
     <t xml:space="preserve">D3</t>
   </si>
   <si>
     <t xml:space="preserve">DREQ</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">D4</t>
   </si>
   <si>
@@ -174,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes (only if I2C not used)</t>
   </si>
   <si>
     <t xml:space="preserve">D21</t>
@@ -648,10 +660,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A1:F71"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
   </cols>
@@ -717,13 +729,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F71"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.55"/>
   </cols>
@@ -744,570 +756,591 @@
       <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/hardwareUebersicht.xlsx
+++ b/hardware/hardwareUebersicht.xlsx
@@ -86,6 +86,9 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
+    <t xml:space="preserve">whiteButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes (only LOW)</t>
   </si>
   <si>
@@ -173,18 +176,27 @@
     <t xml:space="preserve">TX1</t>
   </si>
   <si>
+    <t xml:space="preserve">yellowButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">D19</t>
   </si>
   <si>
     <t xml:space="preserve">RX1</t>
   </si>
   <si>
+    <t xml:space="preserve">redButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">D20</t>
   </si>
   <si>
     <t xml:space="preserve">SDA</t>
   </si>
   <si>
+    <t xml:space="preserve">greenButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes (only if I2C not used)</t>
   </si>
   <si>
@@ -194,6 +206,9 @@
     <t xml:space="preserve">SCL</t>
   </si>
   <si>
+    <t xml:space="preserve">blueButton</t>
+  </si>
+  <si>
     <t xml:space="preserve">D22</t>
   </si>
   <si>
@@ -335,43 +350,28 @@
     <t xml:space="preserve">A1</t>
   </si>
   <si>
-    <t xml:space="preserve">whiteButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">D56</t>
   </si>
   <si>
     <t xml:space="preserve">A2</t>
   </si>
   <si>
-    <t xml:space="preserve">blueButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">D57</t>
   </si>
   <si>
     <t xml:space="preserve">A3</t>
   </si>
   <si>
-    <t xml:space="preserve">greenButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">D58</t>
   </si>
   <si>
     <t xml:space="preserve">A4</t>
   </si>
   <si>
-    <t xml:space="preserve">redButton</t>
-  </si>
-  <si>
     <t xml:space="preserve">D59</t>
   </si>
   <si>
     <t xml:space="preserve">A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yellowButton</t>
   </si>
   <si>
     <t xml:space="preserve">D60</t>
@@ -503,7 +503,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +520,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -563,7 +557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,10 +567,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,7 +628,7 @@
       <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -663,7 +653,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.8"/>
   </cols>
@@ -732,10 +722,10 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.55"/>
   </cols>
@@ -780,424 +770,424 @@
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1348,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
